--- a/algoexpert/Algorithms_solved.xlsx
+++ b/algoexpert/Algorithms_solved.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shehryarbajwa/algorithms-challenges/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shehryarbajwa/algorithms-challenges/algoexpert/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9116B0-896D-DB49-8DA0-A8C48CD486E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C11864-9963-B24F-B68D-4BF096C3EFBC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="60" windowWidth="28040" windowHeight="15900" xr2:uid="{5B13E3C5-C034-6249-A945-F210C27A470A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="70">
   <si>
     <t>Problem</t>
   </si>
@@ -199,6 +199,42 @@
   </si>
   <si>
     <t>Using modulus, divide the key if it gets too large, and if the ord value gets beyond 122 use module again to make it go from 96 forward range so it is back in lowercase numbers</t>
+  </si>
+  <si>
+    <t>Three Number Sum</t>
+  </si>
+  <si>
+    <t>2020-14-01</t>
+  </si>
+  <si>
+    <t>Sort the numbers, Pointers for traversing the rest of the array left and right, for loop for traversing current Number runs till the length of array - 2 so enough space for left and right to traverse, if sum &gt; targetSum, then decrease the difference and move the right pointer backwards because 1 + 2 + 8 = 11 is &gt; 10 so we need a smaller number instead of 8. If current_sum &lt; targetSum, move left to get a bigger Sum. If they equal append to array</t>
+  </si>
+  <si>
+    <t>Mediums:</t>
+  </si>
+  <si>
+    <t>Smallest Difference</t>
+  </si>
+  <si>
+    <t>Doing it without using two for loops</t>
+  </si>
+  <si>
+    <t>Sort the numbers first in place so we save additonal memory, however, this will cause run time to be O(logn). Then create two differences variables that have default value of infinity. Then use pointers. Compare if arrayOne at leftPointer and arrayTwo at rightPointer are equal then return the numbers, else if number1 &lt; number2, since the arrays are sorted, it means we have to increase number1 to get a smaller difference 5 &lt; 15, so we move 5 to 8. The opposite is also true. Once the currentIteration's difference is calculated, make sure to change the smallest_difference variable to reflect the new sum. In every new iteration, it should only change if this number is greater than currentNumber. Otherwise this is most min</t>
+  </si>
+  <si>
+    <t>Move Element to End</t>
+  </si>
+  <si>
+    <t>Use pointers, careful when moving j back one element to use a while loop for I &lt; j otherwise j can be continously swapped and loop never breaks</t>
+  </si>
+  <si>
+    <t>BST Construction</t>
+  </si>
+  <si>
+    <t>When inserting, it has to stop after insertion. When searching traversal is exhaustive till the very end of leaf</t>
+  </si>
+  <si>
+    <t>Remember the edge cases of removal, when it is a leaf, remove the leaf and set to Null, when it has one child node, remove the parent and replace with child node, when it has two child nodes, find the lowest number in right subtree to maitain the tree</t>
   </si>
 </sst>
 </file>
@@ -214,7 +250,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,7 +259,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFB2BE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,11 +294,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -253,6 +328,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFB2BE"/>
       <color rgb="FFFF0000"/>
     </mruColors>
   </colors>
@@ -564,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692D23BF-E5BD-4744-931C-2F3DDC23964E}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -585,425 +661,553 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7">
         <v>43862</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="3">
+      <c r="G3" s="6"/>
+      <c r="H3" s="7">
         <v>43862</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="2"/>
+      <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3">
+      <c r="G4" s="6"/>
+      <c r="H4" s="7">
         <v>43922</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="3">
+      <c r="G5" s="6"/>
+      <c r="H5" s="7">
         <v>43922</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="3">
+      <c r="G6" s="6"/>
+      <c r="H6" s="7">
         <v>43952</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="3">
+      <c r="G7" s="6"/>
+      <c r="H7" s="7">
         <v>43952</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="3">
+      <c r="G8" s="6"/>
+      <c r="H8" s="7">
         <v>43983</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="B9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="3">
+      <c r="G9" s="6"/>
+      <c r="H9" s="7">
         <v>43983</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="3">
+      <c r="B10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7">
         <v>44013</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2" t="s">
+      <c r="I10" s="6"/>
+      <c r="J10" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="3">
+      <c r="B11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7">
         <v>44013</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="6" t="s">
         <v>44</v>
       </c>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="B12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3">
+      <c r="G12" s="6"/>
+      <c r="H12" s="7">
         <v>44075</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="B13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="3">
+      <c r="G13" s="6"/>
+      <c r="H13" s="7">
         <v>44075</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="6" t="s">
         <v>50</v>
       </c>
+      <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="B14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="6"/>
+      <c r="H14" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="6" t="s">
         <v>54</v>
       </c>
+      <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="B15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2" t="s">
+      <c r="G15" s="6"/>
+      <c r="H15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/algoexpert/Algorithms_solved.xlsx
+++ b/algoexpert/Algorithms_solved.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shehryarbajwa/algorithms-challenges/algoexpert/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C11864-9963-B24F-B68D-4BF096C3EFBC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D05A9F8-5C1D-E44B-8BD1-FC23699AA991}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="60" windowWidth="28040" windowHeight="15900" xr2:uid="{5B13E3C5-C034-6249-A945-F210C27A470A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="72">
   <si>
     <t>Problem</t>
   </si>
@@ -235,6 +235,12 @@
   </si>
   <si>
     <t>Remember the edge cases of removal, when it is a leaf, remove the leaf and set to Null, when it has one child node, remove the parent and replace with child node, when it has two child nodes, find the lowest number in right subtree to maitain the tree</t>
+  </si>
+  <si>
+    <t>BST Validation</t>
+  </si>
+  <si>
+    <t>PreOrder, InOrder and PostOrder</t>
   </si>
 </sst>
 </file>
@@ -294,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -312,9 +318,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -640,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692D23BF-E5BD-4744-931C-2F3DDC23964E}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1089,25 +1092,39 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="6"/>
+      <c r="A16" s="10" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>61</v>
-      </c>
+      <c r="A17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>5</v>
@@ -1121,19 +1138,21 @@
       <c r="E18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>60</v>
+      <c r="I18" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>5</v>
@@ -1141,27 +1160,23 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>5</v>
@@ -1169,23 +1184,25 @@
       <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>5</v>
@@ -1199,15 +1216,23 @@
       <c r="E21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/algoexpert/Algorithms_solved.xlsx
+++ b/algoexpert/Algorithms_solved.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shehryarbajwa/algorithms-challenges/algoexpert/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D05A9F8-5C1D-E44B-8BD1-FC23699AA991}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB91804C-D589-664B-9D80-BF1334826027}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="60" windowWidth="28040" windowHeight="15900" xr2:uid="{5B13E3C5-C034-6249-A945-F210C27A470A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="75">
   <si>
     <t>Problem</t>
   </si>
@@ -241,6 +241,15 @@
   </si>
   <si>
     <t>PreOrder, InOrder and PostOrder</t>
+  </si>
+  <si>
+    <t>Pre-order means append to array first, then traverse left, then right. Post-order append last, in Order means append in the middle</t>
+  </si>
+  <si>
+    <t>Invert Binary Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to traverse through the tree, </t>
   </si>
 </sst>
 </file>
@@ -643,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692D23BF-E5BD-4744-931C-2F3DDC23964E}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1216,6 +1225,10 @@
       <c r="E21" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -1232,6 +1245,32 @@
       </c>
       <c r="E22" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/algoexpert/Algorithms_solved.xlsx
+++ b/algoexpert/Algorithms_solved.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shehryarbajwa/algorithms-challenges/algoexpert/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB91804C-D589-664B-9D80-BF1334826027}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00ADE25A-35C9-6F4A-A4D3-E39A89345894}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="60" windowWidth="28040" windowHeight="15900" xr2:uid="{5B13E3C5-C034-6249-A945-F210C27A470A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="77">
   <si>
     <t>Problem</t>
   </si>
@@ -249,7 +249,13 @@
     <t>Invert Binary Tree</t>
   </si>
   <si>
-    <t xml:space="preserve">How to traverse through the tree, </t>
+    <t xml:space="preserve">How to traverse through the tree, go level by level using a queue. Pop the 0th element of the array, add Null nodes to the queue. While loop breaks when there are no more elements in the queue. </t>
+  </si>
+  <si>
+    <t>Maximum Subset with no Adjacent Elements</t>
+  </si>
+  <si>
+    <t>Use the formula, MaxSum(i-1) or maxSum(I - 2) + array[i] to decide which one of the two is bigger. This way by the time we finish traversing the array, we can find the maximum sum in the original array. Use dynamic programming</t>
   </si>
 </sst>
 </file>
@@ -652,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692D23BF-E5BD-4744-931C-2F3DDC23964E}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1229,6 +1235,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -1252,6 +1259,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -1272,6 +1280,34 @@
       <c r="F23" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
